--- a/General_Results_and_Plotting/Plotting_Benefits_Nodule.xlsx
+++ b/General_Results_and_Plotting/Plotting_Benefits_Nodule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Desktop\ENSA Preliminary work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Downloads\Maize-Rhizobia-AMF_FBA-main\General_Results_and_Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D33B3-7EC3-462C-93BE-A706B318243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A1E03-06A4-4EE8-9DC9-6BF739CDCE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,6 +381,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -413,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.3612321877717596E-2</v>
+        <v>6.1133388136613197E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.4393486181216504E-2</v>
+        <v>6.1805075695871202E-2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.7547407768777494E-2</v>
+        <v>6.5184352889597494E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -433,22 +441,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>9.5881789916867494E-3</v>
+        <v>7.1677931762149398E-3</v>
       </c>
       <c r="C3">
-        <v>8.4952998529594106E-2</v>
+        <v>6.2207675899909998E-2</v>
       </c>
       <c r="D3">
-        <v>9.4810650376663409E-3</v>
+        <v>7.09254656995885E-3</v>
       </c>
       <c r="E3">
-        <v>8.5538647637011994E-2</v>
+        <v>6.2722743604473705E-2</v>
       </c>
       <c r="F3">
-        <v>9.0626267800003203E-3</v>
+        <v>6.7998303527872098E-3</v>
       </c>
       <c r="G3">
-        <v>8.78561642654032E-2</v>
+        <v>6.5452920276735202E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -456,22 +464,22 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1.9176357987957401E-2</v>
+        <v>1.43355863469722E-2</v>
       </c>
       <c r="C4">
-        <v>8.6280978773560599E-2</v>
+        <v>6.3267528295928896E-2</v>
       </c>
       <c r="D4">
-        <v>1.8962130071717102E-2</v>
+        <v>1.41850931435136E-2</v>
       </c>
       <c r="E4">
-        <v>8.6683391804840595E-2</v>
+        <v>6.3640411512031703E-2</v>
       </c>
       <c r="F4">
-        <v>1.8125253543710099E-2</v>
+        <v>1.3599660702574101E-2</v>
       </c>
       <c r="G4">
-        <v>8.8149025453063801E-2</v>
+        <v>6.5691102055548997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -479,22 +487,22 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>2.87645369733548E-2</v>
+        <v>2.1503379525753801E-2</v>
       </c>
       <c r="C5">
-        <v>8.7599704480497004E-2</v>
+        <v>6.4320593712562199E-2</v>
       </c>
       <c r="D5">
-        <v>2.8443195116525499E-2</v>
+        <v>2.1277639715795899E-2</v>
       </c>
       <c r="E5">
-        <v>8.7811975506118398E-2</v>
+        <v>6.4558079425248396E-2</v>
       </c>
       <c r="F5">
-        <v>2.71878803136609E-2</v>
+        <v>2.0399491052263199E-2</v>
       </c>
       <c r="G5">
-        <v>8.8438024942901705E-2</v>
+        <v>6.5929283828159296E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -502,22 +510,22 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>3.83527159640763E-2</v>
+        <v>2.8671172693532001E-2</v>
       </c>
       <c r="C6">
-        <v>8.8872160446369697E-2</v>
+        <v>6.5373659137109297E-2</v>
       </c>
       <c r="D6">
-        <v>3.79242601554418E-2</v>
+        <v>2.83701862895827E-2</v>
       </c>
       <c r="E6">
-        <v>8.8893798633191204E-2</v>
+        <v>6.5468858483853601E-2</v>
       </c>
       <c r="F6">
-        <v>3.62505070886745E-2</v>
+        <v>2.7199321358782801E-2</v>
       </c>
       <c r="G6">
-        <v>8.8727024432739596E-2</v>
+        <v>6.6167465607028506E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -525,22 +533,22 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>4.7940894961253103E-2</v>
+        <v>3.5838965867301897E-2</v>
       </c>
       <c r="C7">
-        <v>9.01174911375308E-2</v>
+        <v>6.6421700353464896E-2</v>
       </c>
       <c r="D7">
-        <v>4.7405325190886097E-2</v>
+        <v>3.5462732857769998E-2</v>
       </c>
       <c r="E7">
-        <v>8.9954176448829595E-2</v>
+        <v>6.6378585567892806E-2</v>
       </c>
       <c r="F7">
-        <v>4.5313133860863497E-2</v>
+        <v>3.3999151758236201E-2</v>
       </c>
       <c r="G7">
-        <v>8.9016023923499304E-2</v>
+        <v>6.6405647385897604E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -548,22 +556,22 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>5.7529073946398397E-2</v>
+        <v>4.3006759040784798E-2</v>
       </c>
       <c r="C8">
-        <v>9.1329038152050096E-2</v>
+        <v>6.7450747510531706E-2</v>
       </c>
       <c r="D8">
-        <v>5.68863902312036E-2</v>
+        <v>4.2555279431814703E-2</v>
       </c>
       <c r="E8">
-        <v>9.0976702966595199E-2</v>
+        <v>6.7270312831190601E-2</v>
       </c>
       <c r="F8">
-        <v>5.4375760633052501E-2</v>
+        <v>4.07989821063783E-2</v>
       </c>
       <c r="G8">
-        <v>8.9303907487224901E-2</v>
+        <v>6.6643829164766799E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -571,22 +579,22 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>6.7117252947334102E-2</v>
+        <v>5.0174552212917098E-2</v>
       </c>
       <c r="C9">
-        <v>9.2530440406837999E-2</v>
+        <v>6.8422117376008104E-2</v>
       </c>
       <c r="D9">
-        <v>6.6367455274208606E-2</v>
+        <v>4.9647826004628401E-2</v>
       </c>
       <c r="E9">
-        <v>9.1923557381222001E-2</v>
+        <v>6.8115788669579402E-2</v>
       </c>
       <c r="F9">
-        <v>6.3438387378560696E-2</v>
+        <v>4.7598812423613898E-2</v>
       </c>
       <c r="G9">
-        <v>8.95888775926688E-2</v>
+        <v>6.6882010943630901E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -594,22 +602,22 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>7.6705431941911206E-2</v>
+        <v>5.7342345387291098E-2</v>
       </c>
       <c r="C10">
-        <v>9.3598339313482395E-2</v>
+        <v>6.9393487242292301E-2</v>
       </c>
       <c r="D10">
-        <v>7.5848520308883699E-2</v>
+        <v>5.6740372566541498E-2</v>
       </c>
       <c r="E10">
-        <v>9.2838962546065495E-2</v>
+        <v>6.8961264507401199E-2</v>
       </c>
       <c r="F10">
-        <v>7.2501014180245196E-2</v>
+        <v>5.4398642815280902E-2</v>
       </c>
       <c r="G10">
-        <v>8.9871573164602994E-2</v>
+        <v>6.7120192722247604E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -617,22 +625,22 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>8.6293610934206594E-2</v>
+        <v>6.4510138558826299E-2</v>
       </c>
       <c r="C11">
-        <v>9.46508762033553E-2</v>
+        <v>7.03648571161644E-2</v>
       </c>
       <c r="D11">
-        <v>8.5329585340613995E-2</v>
+        <v>6.3832919147396597E-2</v>
       </c>
       <c r="E11">
-        <v>9.3749970079264194E-2</v>
+        <v>6.9806740343181697E-2</v>
       </c>
       <c r="F11">
-        <v>8.1563640948854904E-2</v>
+        <v>6.1198473162006002E-2</v>
       </c>
       <c r="G11">
-        <v>9.0154268736481899E-2</v>
+        <v>6.7358374507713106E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -640,22 +648,22 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>9.5881789924413097E-2</v>
+        <v>7.1677931734810199E-2</v>
       </c>
       <c r="C12">
-        <v>9.5619072171597597E-2</v>
+        <v>7.1221169955120706E-2</v>
       </c>
       <c r="D12">
-        <v>9.4810650385714706E-2</v>
+        <v>7.0925465719669206E-2</v>
       </c>
       <c r="E12">
-        <v>9.4523136794396403E-2</v>
+        <v>7.04231366345692E-2</v>
       </c>
       <c r="F12">
-        <v>9.0626267721607603E-2</v>
+        <v>6.7998303518177705E-2</v>
       </c>
       <c r="G12">
-        <v>9.0413943861373303E-2</v>
+        <v>6.7573826441724494E-2</v>
       </c>
     </row>
   </sheetData>
